--- a/biology/Histoire de la zoologie et de la botanique/Angelo_Mazzoleni/Angelo_Mazzoleni.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Angelo_Mazzoleni/Angelo_Mazzoleni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelo Mazzoleni  (Florence 7 juin 1952)  est un paléontologue et peintre italien contemporain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelo Mazzoleni passe son enfance en Toscane et dans une localité bergamasque.
 Il commence son activité artistique en fréquentant des cours de perfectionnement à l’Académie Carrara de Bergame. Au cours de voyages en Allemagne et à Paris, il perfectionne son langage artistico-culturel qui influence son activité en tant que peintre.
@@ -546,9 +560,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angelo Mazzoleni a découvert une espèce de fossiles qui a été baptisée de son nom : Pseudocoleia mazzolenii[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angelo Mazzoleni a découvert une espèce de fossiles qui a été baptisée de son nom : Pseudocoleia mazzolenii.
 </t>
         </is>
       </c>
@@ -579,8 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Expositions
-1980 - Bergame, Circolo Artistico Bergamasco[2]
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1980 - Bergame, Circolo Artistico Bergamasco
 1980 - Bologne, Galleria Arte Nazionale.
 1983 - Bergame, Ars Gallery,
 1995 - Bergame, C.L. Rosa Luxemberg,
